--- a/tasks/finalpool/investment-decision-analysis/groundtruth_workspace/investment_analysis_groundtruth.xlsx
+++ b/tasks/finalpool/investment-decision-analysis/groundtruth_workspace/investment_analysis_groundtruth.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>NVDA Annual Return</t>
+          <t>NVDA Annual Return (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>AAPL Annual Return</t>
+          <t>AAPL Annual Return (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -477,22 +477,22 @@
         <v>2021</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>29.35</v>
       </c>
       <c r="C2" t="n">
-        <v>174</v>
+        <v>174.09</v>
       </c>
       <c r="D2" t="n">
-        <v>127.72</v>
+        <v>125.52</v>
       </c>
       <c r="E2" t="n">
-        <v>34.01</v>
+        <v>34.65</v>
       </c>
       <c r="F2" t="n">
-        <v>22772</v>
+        <v>22552.11</v>
       </c>
       <c r="G2" t="n">
-        <v>13401</v>
+        <v>13464.82</v>
       </c>
     </row>
     <row r="3">
@@ -500,22 +500,22 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C3" t="n">
-        <v>128</v>
+        <v>128.12</v>
       </c>
       <c r="D3" t="n">
-        <v>-50.14</v>
+        <v>-50.26</v>
       </c>
       <c r="E3" t="n">
-        <v>-26.31</v>
+        <v>-26.4</v>
       </c>
       <c r="F3" t="n">
-        <v>11353</v>
+        <v>11217.75</v>
       </c>
       <c r="G3" t="n">
-        <v>9874</v>
+        <v>9909.540000000001</v>
       </c>
     </row>
     <row r="4">
@@ -523,22 +523,22 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>49.49</v>
       </c>
       <c r="C4" t="n">
-        <v>186</v>
+        <v>190.91</v>
       </c>
       <c r="D4" t="n">
-        <v>231.73</v>
+        <v>238.99</v>
       </c>
       <c r="E4" t="n">
-        <v>44.46</v>
+        <v>49.01</v>
       </c>
       <c r="F4" t="n">
-        <v>37663</v>
+        <v>38026.74</v>
       </c>
       <c r="G4" t="n">
-        <v>14264</v>
+        <v>14766.02</v>
       </c>
     </row>
     <row r="5">
@@ -546,22 +546,22 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>136</v>
+        <v>134.25</v>
       </c>
       <c r="C5" t="n">
-        <v>248</v>
+        <v>249.53</v>
       </c>
       <c r="D5" t="n">
-        <v>176.25</v>
+        <v>171.25</v>
       </c>
       <c r="E5" t="n">
-        <v>33.66</v>
+        <v>30.71</v>
       </c>
       <c r="F5" t="n">
-        <v>104047</v>
+        <v>103149.24</v>
       </c>
       <c r="G5" t="n">
-        <v>19066</v>
+        <v>19299.96</v>
       </c>
     </row>
   </sheetData>
@@ -611,12 +611,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>NVDA Revenue Growth Rate</t>
+          <t>NVDA Revenue Growth Rate (%)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>AAPL Revenue Growth Rate</t>
+          <t>AAPL Revenue Growth Rate (%)</t>
         </is>
       </c>
     </row>
@@ -625,16 +625,16 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>26.97</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>394.33</v>
+        <v>394.3</v>
       </c>
       <c r="D2" t="n">
-        <v>84.31</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>20.89</v>
+        <v>20.83</v>
       </c>
       <c r="F2" t="n">
         <v>0.22</v>
@@ -648,16 +648,16 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>60.92</v>
+        <v>60.9</v>
       </c>
       <c r="C3" t="n">
-        <v>383.29</v>
+        <v>383.3</v>
       </c>
       <c r="D3" t="n">
-        <v>40.68</v>
+        <v>40.9</v>
       </c>
       <c r="E3" t="n">
-        <v>30.13</v>
+        <v>30.99</v>
       </c>
       <c r="F3" t="n">
         <v>125.85</v>
@@ -674,13 +674,13 @@
         <v>130.5</v>
       </c>
       <c r="C4" t="n">
-        <v>391.04</v>
+        <v>391</v>
       </c>
       <c r="D4" t="n">
-        <v>45.78</v>
+        <v>45.2</v>
       </c>
       <c r="E4" t="n">
-        <v>40.6</v>
+        <v>40.84</v>
       </c>
       <c r="F4" t="n">
         <v>114.2</v>
@@ -733,14 +733,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cumulative Return</t>
+          <t>Cumulative Return (from 21 year end to 24 year end, %)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>356.9</v>
+        <v>357.38</v>
       </c>
       <c r="C2" t="n">
-        <v>42.28</v>
+        <v>43.34</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Annualized Return</t>
+          <t>Annualized Return (CAGR over 21-24, %)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.94</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>12.47</v>
+        <v>12.75</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,53 +772,29 @@
           <t>Current P/E Ratio</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>49.46</v>
-      </c>
-      <c r="C4" t="n">
-        <v>35.23</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AAPL</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Analyst Target Price</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>206</v>
-      </c>
-      <c r="C5" t="n">
-        <v>235</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>AAPL</t>
-        </is>
-      </c>
+          <t>Latest Analyst Target Price</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Target Price Upside %</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>18.33</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>NVDA</t>
-        </is>
-      </c>
+          <t>Target Price Upside (%)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
